--- a/results/scatterplots/GB_DE_FR_ES_parties.xlsx
+++ b/results/scatterplots/GB_DE_FR_ES_parties.xlsx
@@ -155,22 +155,22 @@
     <t xml:space="preserve">Nouveau Centre</t>
   </si>
   <si>
+    <t xml:space="preserve">PRV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR (Parti Radical Valoisien)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PS (Parti Socialiste)</t>
+  </si>
+  <si>
     <t xml:space="preserve">PRG</t>
   </si>
   <si>
     <t xml:space="preserve">Parti Radical de Gauche</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR (Parti Radical Valoisien)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PS (Parti Socialiste)</t>
   </si>
   <si>
     <t xml:space="preserve">UMP</t>
